--- a/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,21</t>
+          <t>-3,63; -0,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,12</t>
+          <t>-3,63; -0,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,46</t>
+          <t>-3,82; -0,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,82</t>
+          <t>-3,27; 0,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,27</t>
+          <t>-2,46; 2,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,01</t>
+          <t>-3,44; 1,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,22</t>
+          <t>-2,81; -0,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,37</t>
+          <t>-2,54; 0,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,17</t>
+          <t>-3,13; -0,25</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,59; 28,73</t>
+          <t>-88,98; 15,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,15</t>
+          <t>-100,0; 4,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 18,83</t>
+          <t>-100,0; 84,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,13; 57,02</t>
+          <t>-80,17; 34,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,53; 120,22</t>
+          <t>-63,5; 114,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 80,51</t>
+          <t>-87,16; 93,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,72; -1,11</t>
+          <t>-77,27; -3,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,9; 21,82</t>
+          <t>-70,82; 21,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 2,98</t>
+          <t>-87,75; -0,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,38</t>
+          <t>-3,18; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -0,23</t>
+          <t>-3,42; -0,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,74</t>
+          <t>-2,82; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -0,78</t>
+          <t>-4,88; -0,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,49</t>
+          <t>-4,77; -0,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,12</t>
+          <t>-5,25; -1,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,74</t>
+          <t>-3,37; -0,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,93</t>
+          <t>-3,39; -0,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,46</t>
+          <t>-3,39; -0,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,62; 32,83</t>
+          <t>-72,86; 20,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,82; 1,79</t>
+          <t>-80,67; 5,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 81,04</t>
+          <t>-73,68; 95,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,16; -16,73</t>
+          <t>-81,34; -25,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,77; -9,69</t>
+          <t>-78,12; -14,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,39; -18,63</t>
+          <t>-87,4; -23,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,77; -21,07</t>
+          <t>-72,72; -25,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,85; -29,02</t>
+          <t>-72,87; -22,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,58; -9,66</t>
+          <t>-75,21; -7,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,26</t>
+          <t>-3,75; 0,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,95</t>
+          <t>-4,26; -0,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,66</t>
+          <t>-4,45; -0,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -1,93</t>
+          <t>-6,03; -1,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -1,96</t>
+          <t>-6,13; -2,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -3,34</t>
+          <t>-7,17; -3,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -1,29</t>
+          <t>-4,17; -1,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -1,87</t>
+          <t>-4,69; -2,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -2,51</t>
+          <t>-5,13; -2,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 18,17</t>
+          <t>-77,34; 15,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,45; -25,92</t>
+          <t>-88,17; -31,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,67; -15,3</t>
+          <t>-91,16; -18,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,85; -38,36</t>
+          <t>-81,99; -35,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,09; -39,29</t>
+          <t>-82,67; -40,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,18; -66,15</t>
+          <t>-95,2; -67,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,7; -33,07</t>
+          <t>-73,65; -33,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,29; -49,13</t>
+          <t>-81,18; -47,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-90,73; -62,11</t>
+          <t>-90,57; -61,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,28</t>
+          <t>-1,43; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,48</t>
+          <t>-2,12; 1,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; -0,02</t>
+          <t>-3,08; -0,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,93</t>
+          <t>-4,74; -0,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; -0,23</t>
+          <t>-4,1; -0,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -1,29</t>
+          <t>-5,04; -1,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,16</t>
+          <t>-2,62; 0,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,07</t>
+          <t>-2,56; 0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -1,09</t>
+          <t>-3,52; -1,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 224,61</t>
+          <t>-52,53; 239,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,34; 172,13</t>
+          <t>-72,02; 136,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,07; 33,47</t>
+          <t>-94,91; -3,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,55; -24,62</t>
+          <t>-87,04; -19,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,46; -5,94</t>
+          <t>-78,24; -1,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,42; -44,47</t>
+          <t>-87,77; -46,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,59; 8,97</t>
+          <t>-66,4; 10,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,05; 6,46</t>
+          <t>-67,33; 6,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,16; -45,31</t>
+          <t>-86,14; -45,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; -0,66</t>
+          <t>-5,14; -0,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,55</t>
+          <t>-4,93; -0,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,4</t>
+          <t>-4,78; -0,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -1,2</t>
+          <t>-5,94; -1,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; -1,21</t>
+          <t>-6,05; -1,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -1,13</t>
+          <t>-5,95; -1,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,83; -1,53</t>
+          <t>-4,78; -1,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -1,47</t>
+          <t>-4,88; -1,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -1,3</t>
+          <t>-4,45; -1,34</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,71; -10,15</t>
+          <t>-92,48; -14,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-91,47; -5,63</t>
+          <t>-91,84; -11,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,38; -10,44</t>
+          <t>-84,16; -3,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,57; -33,28</t>
+          <t>-90,28; -24,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,82; -28,48</t>
+          <t>-90,06; -23,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -32,51</t>
+          <t>-82,97; -32,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-86,77; -42,41</t>
+          <t>-84,64; -36,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -35,77</t>
+          <t>-86,43; -44,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,64; -39,68</t>
+          <t>-79,35; -37,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,01</t>
+          <t>-3,02; 0,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,75</t>
+          <t>-2,61; 0,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,18</t>
+          <t>-2,88; -0,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -1,79</t>
+          <t>-5,65; -1,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -0,3</t>
+          <t>-4,74; -0,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -2,29</t>
+          <t>-5,87; -2,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -1,46</t>
+          <t>-3,95; -1,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,2</t>
+          <t>-3,1; -0,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -1,69</t>
+          <t>-3,93; -1,66</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-86,4; 8,74</t>
+          <t>-86,62; 19,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 52,36</t>
+          <t>-71,35; 49,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 1,18</t>
+          <t>-80,77; -5,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-87,39; -41,01</t>
+          <t>-88,1; -39,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-69,48; -0,89</t>
+          <t>-73,16; -7,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-85,84; -57,78</t>
+          <t>-85,94; -55,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-83,75; -44,26</t>
+          <t>-81,84; -40,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-65,21; -5,15</t>
+          <t>-65,1; -6,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,27; -52,81</t>
+          <t>-80,36; -52,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; -0,57</t>
+          <t>-1,98; -0,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,91</t>
+          <t>-2,39; -0,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; -1,13</t>
+          <t>-2,6; -1,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; -2,24</t>
+          <t>-3,95; -2,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,77</t>
+          <t>-3,55; -1,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -2,6</t>
+          <t>-4,34; -2,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -1,64</t>
+          <t>-2,81; -1,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -1,53</t>
+          <t>-2,63; -1,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-3,15; -2,09</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-60,55; -22,58</t>
+          <t>-59,83; -20,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-68,54; -33,87</t>
+          <t>-67,99; -32,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -42,88</t>
+          <t>-74,15; -41,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -51,95</t>
+          <t>-75,16; -51,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-66,53; -40,91</t>
+          <t>-66,89; -42,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -63,01</t>
+          <t>-79,86; -62,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-65,84; -46,23</t>
+          <t>-66,34; -45,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -43,4</t>
+          <t>-62,82; -42,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -60,35</t>
+          <t>-74,8; -59,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,04</t>
+          <t>-3,33; -0,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,17</t>
+          <t>-3,68; -0,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,33</t>
+          <t>-3,85; -0,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,6</t>
+          <t>-3,27; 0,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,29</t>
+          <t>-2,37; 2,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,41</t>
+          <t>-3,32; 1,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,17</t>
+          <t>-2,73; -0,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,33</t>
+          <t>-2,4; 0,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,25</t>
+          <t>-3,03; -0,09</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,98; 15,02</t>
+          <t>-87,48; 14,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,85</t>
+          <t>-100,0; 33,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,61</t>
+          <t>-100,0; 38,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,17; 34,58</t>
+          <t>-79,26; 37,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,5; 114,5</t>
+          <t>-61,23; 103,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,16; 93,92</t>
+          <t>-85,66; 89,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,27; -3,2</t>
+          <t>-76,77; -5,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 21,77</t>
+          <t>-69,26; 17,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,75; -0,43</t>
+          <t>-88,23; 7,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,28</t>
+          <t>-2,95; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,15</t>
+          <t>-3,43; -0,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,96</t>
+          <t>-2,76; 1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,98</t>
+          <t>-5,01; -0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,68</t>
+          <t>-4,95; -0,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -1,19</t>
+          <t>-5,32; -1,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,84</t>
+          <t>-3,38; -0,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; -0,72</t>
+          <t>-3,48; -0,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; -0,33</t>
+          <t>-3,41; -0,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 20,75</t>
+          <t>-73,34; 27,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 5,14</t>
+          <t>-82,09; 2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,68; 95,47</t>
+          <t>-73,84; 91,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,34; -25,3</t>
+          <t>-80,9; -17,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,12; -14,8</t>
+          <t>-79,2; -10,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-87,4; -23,33</t>
+          <t>-88,8; -27,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,72; -25,46</t>
+          <t>-71,47; -21,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,87; -22,22</t>
+          <t>-74,1; -23,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,21; -7,41</t>
+          <t>-75,75; -6,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,18</t>
+          <t>-3,72; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -0,96</t>
+          <t>-4,58; -0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,93</t>
+          <t>-4,65; -0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -1,82</t>
+          <t>-5,92; -1,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -2,04</t>
+          <t>-6,02; -1,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -3,32</t>
+          <t>-6,95; -3,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; -1,39</t>
+          <t>-4,47; -1,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -2,0</t>
+          <t>-4,74; -2,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -2,56</t>
+          <t>-5,5; -2,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,34; 15,79</t>
+          <t>-76,53; 20,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,17; -31,94</t>
+          <t>-88,28; -29,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,16; -18,03</t>
+          <t>-91,09; -22,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,99; -35,4</t>
+          <t>-81,98; -33,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,67; -40,04</t>
+          <t>-83,41; -35,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,2; -67,58</t>
+          <t>-94,78; -65,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,65; -33,88</t>
+          <t>-75,67; -33,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,18; -47,4</t>
+          <t>-80,73; -45,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-90,57; -61,97</t>
+          <t>-91,16; -61,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,28</t>
+          <t>-1,53; 2,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,32</t>
+          <t>-2,09; 1,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; -0,21</t>
+          <t>-3,12; -0,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,89</t>
+          <t>-5,16; -1,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; -0,09</t>
+          <t>-4,46; -0,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -1,39</t>
+          <t>-5,27; -1,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,13</t>
+          <t>-2,54; 0,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,07</t>
+          <t>-2,58; 0,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -1,12</t>
+          <t>-3,4; -1,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 239,96</t>
+          <t>-58,01; 192,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 136,39</t>
+          <t>-71,5; 151,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,91; -3,71</t>
+          <t>-94,61; 14,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-87,04; -19,6</t>
+          <t>-88,34; -25,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,24; -1,1</t>
+          <t>-80,52; -4,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -46,37</t>
+          <t>-89,23; -45,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 10,76</t>
+          <t>-67,57; 14,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,33; 6,85</t>
+          <t>-67,09; 12,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,14; -45,35</t>
+          <t>-85,1; -42,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,75</t>
+          <t>-4,97; -0,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -0,7</t>
+          <t>-4,74; -0,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -0,64</t>
+          <t>-4,7; -0,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -1,08</t>
+          <t>-5,83; -1,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -1,01</t>
+          <t>-6,31; -1,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -1,19</t>
+          <t>-6,0; -1,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,38</t>
+          <t>-4,79; -1,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -1,5</t>
+          <t>-4,77; -1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -1,34</t>
+          <t>-4,58; -1,39</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-92,48; -14,28</t>
+          <t>-91,23; -10,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-91,84; -11,36</t>
+          <t>-90,61; 1,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,16; -3,66</t>
+          <t>-85,65; -8,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,28; -24,13</t>
+          <t>-89,86; -26,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,06; -23,6</t>
+          <t>-91,07; -30,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-82,97; -32,83</t>
+          <t>-82,92; -31,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-84,64; -36,6</t>
+          <t>-85,4; -39,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-86,43; -44,3</t>
+          <t>-84,86; -39,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,35; -37,9</t>
+          <t>-78,52; -37,23</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,13</t>
+          <t>-3,23; -0,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,23</t>
+          <t>-3,15; -0,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -1,9</t>
+          <t>-5,43; -1,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,44</t>
+          <t>-4,59; -0,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -2,22</t>
+          <t>-5,68; -2,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -1,29</t>
+          <t>-3,93; -1,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,25</t>
+          <t>-3,17; -0,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -1,66</t>
+          <t>-4,01; -1,7</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-86,62; 19,99</t>
+          <t>-85,36; 13,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,35; 49,16</t>
+          <t>-72,46; 49,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-80,77; -5,45</t>
+          <t>-81,0; -5,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-88,1; -39,0</t>
+          <t>-87,47; -43,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-73,16; -7,12</t>
+          <t>-72,01; -6,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-85,94; -55,96</t>
+          <t>-86,66; -58,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-81,84; -40,7</t>
+          <t>-81,56; -42,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-65,1; -6,72</t>
+          <t>-65,6; -10,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,36; -52,52</t>
+          <t>-81,3; -53,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; -0,54</t>
+          <t>-2,01; -0,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,87</t>
+          <t>-2,32; -0,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,6; -1,11</t>
+          <t>-2,57; -1,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -2,18</t>
+          <t>-3,9; -2,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,78</t>
+          <t>-3,43; -1,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -2,65</t>
+          <t>-4,18; -2,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -1,62</t>
+          <t>-2,78; -1,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -1,54</t>
+          <t>-2,64; -1,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,09</t>
+          <t>-3,11; -2,08</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,83; -20,58</t>
+          <t>-59,68; -20,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,99; -32,97</t>
+          <t>-67,73; -32,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-74,15; -41,95</t>
+          <t>-75,11; -42,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-75,16; -51,79</t>
+          <t>-74,86; -53,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -42,56</t>
+          <t>-65,8; -39,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-79,86; -62,73</t>
+          <t>-79,61; -61,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-66,34; -45,71</t>
+          <t>-66,43; -46,87</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-62,82; -42,8</t>
+          <t>-62,92; -42,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -59,21</t>
+          <t>-74,4; -58,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,03</t>
+          <t>-3,16; 0,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,17</t>
+          <t>-3,45; -0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -0,28</t>
+          <t>-3,6; -0,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,59</t>
+          <t>-3,06; 0,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,04</t>
+          <t>-2,39; 2,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,48</t>
+          <t>-3,43; 1,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; -0,18</t>
+          <t>-2,86; -0,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,3</t>
+          <t>-2,43; 0,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,09</t>
+          <t>-3,09; -0,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,48; 14,06</t>
+          <t>-88,59; 28,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,23</t>
+          <t>-100,0; 28,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 38,85</t>
+          <t>-100,0; 18,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,26; 37,64</t>
+          <t>-78,13; 57,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,23; 103,9</t>
+          <t>-64,53; 120,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,66; 89,45</t>
+          <t>-88,35; 80,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,77; -5,3</t>
+          <t>-76,72; -1,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,26; 17,38</t>
+          <t>-71,9; 21,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-88,23; 7,11</t>
+          <t>-87,17; 2,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,3</t>
+          <t>-3,03; 0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,1</t>
+          <t>-3,29; -0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,91</t>
+          <t>-2,74; 1,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -0,86</t>
+          <t>-4,94; -0,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,47</t>
+          <t>-4,89; -0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -1,2</t>
+          <t>-5,41; -1,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; -0,85</t>
+          <t>-3,42; -0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,81</t>
+          <t>-3,57; -0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,42</t>
+          <t>-3,41; -0,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 27,8</t>
+          <t>-72,62; 32,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,09; 2,08</t>
+          <t>-81,82; 1,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,84; 91,06</t>
+          <t>-74,51; 81,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,9; -17,61</t>
+          <t>-81,16; -16,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,2; -10,72</t>
+          <t>-79,77; -9,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,8; -27,69</t>
+          <t>-89,39; -18,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,47; -21,84</t>
+          <t>-71,77; -21,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,1; -23,31</t>
+          <t>-75,85; -29,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,75; -6,55</t>
+          <t>-75,58; -9,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,25</t>
+          <t>-3,6; 0,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,89</t>
+          <t>-4,58; -0,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,84</t>
+          <t>-4,35; -0,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -1,72</t>
+          <t>-6,14; -1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -1,83</t>
+          <t>-6,26; -1,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,14</t>
+          <t>-7,15; -3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -1,51</t>
+          <t>-4,19; -1,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -2,0</t>
+          <t>-4,63; -1,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -2,68</t>
+          <t>-5,26; -2,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 20,58</t>
+          <t>-73,53; 18,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,28; -29,82</t>
+          <t>-88,45; -25,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,09; -22,3</t>
+          <t>-90,67; -15,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,98; -33,95</t>
+          <t>-82,85; -38,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,41; -35,83</t>
+          <t>-83,09; -39,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,78; -65,73</t>
+          <t>-95,18; -66,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,67; -33,76</t>
+          <t>-74,7; -33,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,73; -45,96</t>
+          <t>-82,29; -49,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,16; -61,75</t>
+          <t>-90,73; -62,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,24</t>
+          <t>-1,54; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,42</t>
+          <t>-2,1; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -0,19</t>
+          <t>-3,08; -0,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; -1,05</t>
+          <t>-5,02; -0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -0,38</t>
+          <t>-4,22; -0,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -1,44</t>
+          <t>-4,94; -1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,26</t>
+          <t>-2,51; 0,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,24</t>
+          <t>-2,65; 0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,01</t>
+          <t>-3,41; -1,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 192,53</t>
+          <t>-59,22; 224,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 151,98</t>
+          <t>-71,34; 172,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,61; 14,76</t>
+          <t>-93,07; 33,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,34; -25,24</t>
+          <t>-88,55; -24,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,52; -4,4</t>
+          <t>-80,46; -5,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,23; -45,94</t>
+          <t>-87,42; -44,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-67,57; 14,56</t>
+          <t>-65,59; 8,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,09; 12,62</t>
+          <t>-68,05; 6,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-85,1; -42,96</t>
+          <t>-86,16; -45,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,59</t>
+          <t>-4,91; -0,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,1</t>
+          <t>-4,99; -0,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,42</t>
+          <t>-4,97; -0,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -1,14</t>
+          <t>-6,01; -1,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -1,16</t>
+          <t>-6,18; -1,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -1,37</t>
+          <t>-5,87; -1,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; -1,47</t>
+          <t>-4,83; -1,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -1,41</t>
+          <t>-4,74; -1,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -1,39</t>
+          <t>-4,56; -1,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-91,23; -10,15</t>
+          <t>-90,71; -10,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,61; 1,99</t>
+          <t>-91,47; -5,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,65; -8,64</t>
+          <t>-85,38; -10,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,86; -26,69</t>
+          <t>-90,57; -33,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,07; -30,24</t>
+          <t>-90,82; -28,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-82,92; -31,07</t>
+          <t>-84,55; -32,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-85,4; -39,01</t>
+          <t>-86,77; -42,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-84,86; -39,48</t>
+          <t>-85,85; -35,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -37,23</t>
+          <t>-79,64; -39,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,04</t>
+          <t>-3,22; 0,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,79</t>
+          <t>-2,34; 0,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -0,25</t>
+          <t>-3,01; -0,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -1,71</t>
+          <t>-5,46; -1,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,33</t>
+          <t>-4,34; -0,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -2,29</t>
+          <t>-5,73; -2,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -1,43</t>
+          <t>-3,9; -1,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,37</t>
+          <t>-3,09; -0,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -1,7</t>
+          <t>-3,97; -1,69</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 13,46</t>
+          <t>-86,4; 8,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-72,46; 49,89</t>
+          <t>-68,69; 52,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-81,0; -5,57</t>
+          <t>-79,45; 1,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-87,47; -43,37</t>
+          <t>-87,39; -41,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-72,01; -6,94</t>
+          <t>-69,48; -0,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-86,66; -58,8</t>
+          <t>-85,84; -57,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-81,56; -42,42</t>
+          <t>-83,75; -44,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-65,6; -10,59</t>
+          <t>-65,21; -5,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-81,3; -53,86</t>
+          <t>-80,27; -52,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,01; -0,52</t>
+          <t>-2,04; -0,57</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,84</t>
+          <t>-2,32; -0,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; -1,1</t>
+          <t>-2,5; -1,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -2,24</t>
+          <t>-3,92; -2,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,73</t>
+          <t>-3,54; -1,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -2,58</t>
+          <t>-4,23; -2,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -1,66</t>
+          <t>-2,76; -1,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; -1,5</t>
+          <t>-2,71; -1,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -2,08</t>
+          <t>-3,15; -2,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,68; -20,12</t>
+          <t>-60,55; -22,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -32,13</t>
+          <t>-68,54; -33,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-75,11; -42,36</t>
+          <t>-74,25; -42,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-74,86; -53,36</t>
+          <t>-74,84; -51,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-65,8; -39,4</t>
+          <t>-66,53; -40,91</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-79,61; -61,59</t>
+          <t>-80,31; -63,01</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -46,87</t>
+          <t>-65,84; -46,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-62,92; -42,42</t>
+          <t>-64,08; -43,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-74,4; -58,29</t>
+          <t>-75,28; -60,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,46</t>
+          <t>-3,62; -0,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,01</t>
+          <t>-3,38; 1,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,17</t>
+          <t>-3,1; -0,21</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-82,04%</t>
+          <t>-82,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,59%</t>
+          <t>-38,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-60,72%</t>
+          <t>-61,32%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 18,83</t>
+          <t>-100,0; 14,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 80,51</t>
+          <t>-87,78; 88,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 2,98</t>
+          <t>-87,66; 2,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,74</t>
+          <t>-2,76; 1,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,12</t>
+          <t>-5,59; -1,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,46</t>
+          <t>-3,6; -0,58</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,56%</t>
+          <t>-26,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-68,18%</t>
+          <t>-72,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-51,83%</t>
+          <t>-54,47%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 81,04</t>
+          <t>-75,04; 80,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,39; -18,63</t>
+          <t>-91,22; -27,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,58; -9,66</t>
+          <t>-78,06; -13,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-3,88</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,66</t>
+          <t>-4,33; -0,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -3,34</t>
+          <t>-7,17; -3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -2,51</t>
+          <t>-5,27; -2,52</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-70,85%</t>
+          <t>-70,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-85,78%</t>
+          <t>-86,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-80,4%</t>
+          <t>-80,62%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,67; -15,3</t>
+          <t>-90,44; -13,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,18; -66,15</t>
+          <t>-95,32; -67,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-90,73; -62,11</t>
+          <t>-91,12; -62,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; -0,02</t>
+          <t>-3,28; -0,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -1,29</t>
+          <t>-4,96; -1,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -1,09</t>
+          <t>-3,58; -1,21</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-68,78%</t>
+          <t>-76,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-72,99%</t>
+          <t>-73,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,47%</t>
+          <t>-75,68%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,07; 33,47</t>
+          <t>-96,13; -4,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,42; -44,47</t>
+          <t>-87,88; -46,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,16; -45,31</t>
+          <t>-89,68; -52,92</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-2,78</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,4</t>
+          <t>-4,95; -0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -1,13</t>
+          <t>-5,88; -1,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -1,3</t>
+          <t>-4,55; -1,28</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-61,54%</t>
+          <t>-61,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-67,2%</t>
+          <t>-67,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-64,78%</t>
+          <t>-64,52%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,38; -10,44</t>
+          <t>-85,18; -8,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -32,51</t>
+          <t>-84,45; -32,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,64; -39,68</t>
+          <t>-79,84; -39,79</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-2,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,01</t>
+          <t>-2,05; 0,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,75</t>
+          <t>-1,32; 2,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,18</t>
+          <t>-1,41; 1,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -1,79</t>
+          <t>-8,38; -3,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -0,3</t>
+          <t>-6,71; -1,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -2,29</t>
+          <t>-8,1; -2,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -1,46</t>
+          <t>-4,81; -1,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,2</t>
+          <t>-3,74; -0,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -1,69</t>
+          <t>-4,23; -1,28</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-56,43%</t>
+          <t>-42,97%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-31,13%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-55,77%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-71,48%</t>
+          <t>-91,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-46,65%</t>
+          <t>-63,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-74,52%</t>
+          <t>-81,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-67,39%</t>
+          <t>-84,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-42,6%</t>
+          <t>-51,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-69,31%</t>
+          <t>-67,28%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-86,4; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 52,36</t>
+          <t>-82,05; 690,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 1,18</t>
+          <t>-68,89; 514,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-87,39; -41,01</t>
+          <t>-100,0; -43,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-69,48; -0,89</t>
+          <t>-84,64; -20,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-85,84; -57,78</t>
+          <t>-93,96; -61,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-83,75; -44,26</t>
+          <t>-96,26; -40,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-65,21; -5,15</t>
+          <t>-77,96; -2,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,27; -52,81</t>
+          <t>-86,0; -44,1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-3,19</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; -0,57</t>
+          <t>-6,17; -0,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,91</t>
+          <t>-5,74; 0,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; -1,13</t>
+          <t>-7,12; -1,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; -2,24</t>
+          <t>-5,02; 0,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,77</t>
+          <t>-3,87; 2,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -2,6</t>
+          <t>-5,57; -0,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -1,64</t>
+          <t>-4,53; -0,29</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -1,53</t>
+          <t>-3,75; 0,75</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-5,27; -1,52</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-43,72%</t>
+          <t>-63,08%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-53,83%</t>
+          <t>-50,39%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-61,41%</t>
+          <t>-81,64%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-65,22%</t>
+          <t>-43,89%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-54,4%</t>
+          <t>-23,01%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-72,45%</t>
+          <t>-69,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-57,09%</t>
+          <t>-51,9%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-54,13%</t>
+          <t>-34,46%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-68,18%</t>
+          <t>-74,76%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-91,88; 18,79</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-84,48; 37,38</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-95,5; -35,72</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-81,05; 38,37</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-72,34; 101,02</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-87,14; -21,73</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-78,95; -7,61</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-68,01; 29,11</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-87,22; -50,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-3,06</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-3,46</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; -0,57</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; -0,91</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; -1,19</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; -2,24</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; -1,77</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; -2,65</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; -1,64</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; -1,53</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; -2,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-43,72%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-53,83%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-63,46%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-65,22%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-54,4%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-73,84%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-57,09%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-54,13%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-69,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-60,55; -22,58</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-68,54; -33,87</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-74,25; -42,88</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-75,99; -43,83</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-74,84; -51,95</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-66,53; -40,91</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-80,31; -63,01</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-81,74; -64,83</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-65,84; -46,23</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-64,08; -43,4</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-75,28; -60,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-77,03; -61,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
